--- a/web/simulator/input/Operations.xlsx
+++ b/web/simulator/input/Operations.xlsx
@@ -8,42 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/web/simulator/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFB10C-0F13-4443-971C-09CF40BBCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948164A-EC92-E34F-92A9-9452B143610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="26860" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="25440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Operations" sheetId="8" r:id="rId1"/>
+    <sheet name="Operations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
-    <t>Wh</t>
-  </si>
-  <si>
-    <t>Wh/kg</t>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>[Height]*[Width]*[Length]/1000000</t>
+  </si>
+  <si>
+    <t>dm3</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>[Volumetric Density]*{ Volume }</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -53,7 +53,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -65,133 +65,120 @@
     <t>Nominal Capacity</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>{ Weight } * [Energy Density (gravimetric)]</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>Energy density (volumetric)</t>
+  </si>
+  <si>
+    <t>[Volumetric Density]*[Energy Density (gravimetric)]</t>
+  </si>
+  <si>
+    <t>Wh/dm3</t>
+  </si>
+  <si>
+    <t>BatteryPack</t>
+  </si>
+  <si>
+    <t>Width</t>
   </si>
   <si>
     <t>mm</t>
   </si>
   <si>
-    <t>dm3</t>
+    <t>[Length]*[Height]*{ Width }/1000000</t>
+  </si>
+  <si>
+    <t>([Overhead Weight]+1)*[Cell Quantity]*{Cell.Weight}</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>Wh/dm3</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>[Volumetric Density]*{ Volume }</t>
-  </si>
-  <si>
-    <t>{ Weight } * [Energy Density (gravimetric)]</t>
+    <t>Nominal Power</t>
+  </si>
+  <si>
+    <t>[Nominal Capacity]/[Cell.Nominal Discharge Rate]</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Volumetric density</t>
+  </si>
+  <si>
+    <t>[Weight]*{Volume}</t>
+  </si>
+  <si>
+    <t>kg/dm3</t>
   </si>
   <si>
     <t>Energy density (gravimetric)</t>
   </si>
   <si>
-    <t>Energy density (volumetric)</t>
-  </si>
-  <si>
-    <t>Battery Pack</t>
-  </si>
-  <si>
-    <t>[Height]*[Width]*[Length]/1000000</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Nominal Power</t>
-  </si>
-  <si>
-    <t>[Nominal Capacity]/[Cell.Nominal Discharge Rate]</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Volumetric density</t>
-  </si>
-  <si>
-    <t>[Weight]*{Volume}</t>
-  </si>
-  <si>
-    <t>kg/dm3</t>
-  </si>
-  <si>
     <t>{Nominal Capacity}/{Weight}</t>
   </si>
   <si>
+    <t>Wh/kg</t>
+  </si>
+  <si>
+    <t>{Nominal Capacity}/{Volume}</t>
+  </si>
+  <si>
     <t>Weight Overhead (Packs vs Cells)</t>
   </si>
   <si>
-    <t>{Nominal Capacity}/{Volume}</t>
+    <t>[Cell.Energy density (gravimetric)]/{Energy density (gravimetric)}-1</t>
   </si>
   <si>
     <t>Volume Overhead (Packs vs Cells)</t>
   </si>
   <si>
-    <t>[Cell.Energy density (gravimetric)]/{Energy density (gravimetric)}-1</t>
-  </si>
-  <si>
     <t>{Cell.Energy density (volumetric)}/{Energy density (volumetric)}-1</t>
   </si>
   <si>
-    <t>Battery System</t>
-  </si>
-  <si>
-    <t>[Cell Quantity]*[Cell.Nominal Capacity]</t>
-  </si>
-  <si>
-    <t>([Overhead Weight]+1)*[Cell Quantity]*{Cell.Weight}</t>
-  </si>
-  <si>
-    <t>[Cell Quantity]*([BatteryCasing.cells interspace]*[Cell.Width])+[BatteryCasing.Width]</t>
-  </si>
-  <si>
-    <t>[BatteryPack.Nominal Capacity]*[BatteryPack Quantity]/1000</t>
+    <t>BatterySystem</t>
   </si>
   <si>
     <t>kWh</t>
   </si>
   <si>
-    <t>[BatteryPack.Volume]*[BatteryPack Quantity]</t>
-  </si>
-  <si>
-    <t>[BatteryPack.Weight]*[BatteryPack Quantity]</t>
-  </si>
-  <si>
     <t>O2 charge/discharge volume (@1bar)</t>
   </si>
   <si>
+    <t>{Nominal Capacity}*[AirConsumption…..]</t>
+  </si>
+  <si>
     <t>O2 m3 / kWh (@1bar)</t>
   </si>
   <si>
-    <t>{Nominal Capacity}*[AirConsumption…..]</t>
-  </si>
-  <si>
-    <t>[Volumetric Density]*[Energy Density (gravimetric)]</t>
-  </si>
-  <si>
-    <t>[Length]*[Height]*{ Width }/1000000</t>
+    <t>{BatteryPack.Nominal Capacity}*[BatteryPack Quantity]/1000</t>
+  </si>
+  <si>
+    <t>{BatteryPack.Volume}*[BatteryPack Quantity]</t>
+  </si>
+  <si>
+    <t>{BatteryPack.Weight}*[BatteryPack Quantity]</t>
+  </si>
+  <si>
+    <t>[Cell Quantity]*[Casing.Cell interspace]*[Cell.Width]+[Casing.Width]</t>
+  </si>
+  <si>
+    <t>[Cell Quantity]*{Cell.Nominal Capacity}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +189,26 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -220,21 +219,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Sylfaen"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,70 +278,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,404 +640,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="D24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/simulator/input/Operations.xlsx
+++ b/web/simulator/input/Operations.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/web/simulator/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948164A-EC92-E34F-92A9-9452B143610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E45D9-2AF5-8944-8B52-A9E8BD85EDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Cell</t>
   </si>
@@ -101,18 +113,12 @@
     <t>Nominal Power</t>
   </si>
   <si>
-    <t>[Nominal Capacity]/[Cell.Nominal Discharge Rate]</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>Volumetric density</t>
   </si>
   <si>
-    <t>[Weight]*{Volume}</t>
-  </si>
-  <si>
     <t>kg/dm3</t>
   </si>
   <si>
@@ -168,6 +174,15 @@
   </si>
   <si>
     <t>[Cell Quantity]*{Cell.Nominal Capacity}</t>
+  </si>
+  <si>
+    <t>{Weight}*{Volume}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>{Nominal Capacity}/[Cell.Nominal Discharge Rate]</t>
   </si>
 </sst>
 </file>
@@ -278,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,6 +352,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -647,7 +665,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -696,7 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
@@ -756,12 +776,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -801,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
@@ -816,10 +838,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -828,13 +850,13 @@
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -843,13 +865,13 @@
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -861,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -873,10 +895,10 @@
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
@@ -886,10 +908,10 @@
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="4"/>
@@ -916,7 +938,7 @@
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="14"/>
@@ -931,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -946,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>3</v>
@@ -961,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>18</v>
@@ -973,13 +995,13 @@
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
